--- a/ExcelFiles/TrendLinesCaseStudy.xlsx
+++ b/ExcelFiles/TrendLinesCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{5C7AE44A-B63E-4367-82D1-F22D9C65D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DF3B3A-37C8-492D-83FA-9542BE8057AF}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{5C7AE44A-B63E-4367-82D1-F22D9C65D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95B1AFA-531C-483F-B17E-5C68CAE09742}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Winter 2023</t>
+    <t>Spring 2023</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,6 +974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,6 +1811,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2039,12 +2051,6 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2731,6 +2737,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3134,10 +3144,10 @@
     <row r="2" spans="1:150" s="23" customFormat="1" ht="54.95" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="138"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -3243,12 +3253,12 @@
       <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="98" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
       <c r="K4" s="28"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="34"/>
@@ -3274,10 +3284,10 @@
     <row r="5" spans="1:150" ht="21.95" customHeight="1">
       <c r="A5" s="15"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="97"/>
+      <c r="D5" s="99"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="K5" s="28"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
@@ -3302,39 +3312,39 @@
     <row r="6" spans="1:150" ht="21.95" customHeight="1">
       <c r="A6" s="15"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="97"/>
-      <c r="G6" s="113" t="s">
+      <c r="D6" s="99"/>
+      <c r="G6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
       <c r="Q6" s="42"/>
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
       <c r="U6" s="41"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
       <c r="Y6" s="42"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="40"/>
       <c r="AC6" s="41"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
       <c r="AG6" s="42"/>
       <c r="AI6" s="39"/>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="41"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
       <c r="AO6" s="42"/>
       <c r="AQ6" s="15"/>
       <c r="AY6" s="36"/>
@@ -3345,7 +3355,7 @@
     <row r="7" spans="1:150" ht="21" customHeight="1">
       <c r="A7" s="15"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="99"/>
       <c r="F7" s="5"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -3382,7 +3392,7 @@
     </row>
     <row r="8" spans="1:150" ht="27" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="48"/>
@@ -3392,41 +3402,41 @@
       <c r="I8" s="14"/>
       <c r="J8" s="5"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-      <c r="S8" s="99" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
+      <c r="S8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
       <c r="Y8" s="47"/>
       <c r="AA8" s="50"/>
-      <c r="AB8" s="89" t="s">
+      <c r="AB8" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
       <c r="AI8" s="50"/>
-      <c r="AJ8" s="127" t="s">
+      <c r="AJ8" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="127"/>
-      <c r="AO8" s="127"/>
+      <c r="AK8" s="129"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="129"/>
+      <c r="AN8" s="129"/>
+      <c r="AO8" s="129"/>
       <c r="AQ8" s="15"/>
       <c r="AY8" s="36"/>
       <c r="BA8" s="18" t="s">
@@ -3443,16 +3453,16 @@
       <c r="I9" s="51"/>
       <c r="J9" s="3"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="105" t="s">
+      <c r="M9" s="105"/>
+      <c r="N9" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
@@ -3460,20 +3470,20 @@
       <c r="W9" s="53"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="47"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AJ9" s="128" t="s">
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AJ9" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="132"/>
-      <c r="AM9" s="133"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="134"/>
+      <c r="AK9" s="131"/>
+      <c r="AL9" s="134"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="136"/>
       <c r="AQ9" s="15"/>
       <c r="AY9" s="36"/>
       <c r="BA9" s="18" t="s">
@@ -3489,28 +3499,28 @@
       <c r="C10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="95" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="116"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="3"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="105" t="s">
+      <c r="M10" s="106"/>
+      <c r="N10" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
@@ -3518,20 +3528,20 @@
       <c r="W10" s="53"/>
       <c r="X10" s="53"/>
       <c r="Y10" s="56"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AJ10" s="130" t="s">
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AJ10" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="131"/>
-      <c r="AL10" s="135"/>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="137"/>
+      <c r="AK10" s="133"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="138"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="139"/>
       <c r="AQ10" s="15"/>
       <c r="AY10" s="36"/>
       <c r="BA10" s="18" t="s">
@@ -3545,7 +3555,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="94"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="55"/>
@@ -3553,12 +3563,12 @@
       <c r="I11" s="58"/>
       <c r="J11" s="3"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
       <c r="U11" s="53"/>
@@ -3579,7 +3589,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="95"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="55"/>
@@ -3587,14 +3597,14 @@
       <c r="I12" s="58"/>
       <c r="J12" s="3"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="104"/>
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
       <c r="U12" s="53"/>
@@ -3608,14 +3618,14 @@
       <c r="AE12" s="58"/>
       <c r="AF12" s="58"/>
       <c r="AG12" s="58"/>
-      <c r="AJ12" s="89" t="s">
+      <c r="AJ12" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="91"/>
+      <c r="AO12" s="91"/>
       <c r="AQ12" s="15"/>
       <c r="AY12" s="36"/>
     </row>
@@ -3632,14 +3642,14 @@
         <f>IF(ISTEXT(L13),"1.","")</f>
         <v>1.</v>
       </c>
-      <c r="L13" s="126" t="s">
+      <c r="L13" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
       <c r="S13" s="53"/>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -3653,12 +3663,12 @@
       <c r="AE13" s="58"/>
       <c r="AF13" s="58"/>
       <c r="AG13" s="58"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="89"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
       <c r="AQ13" s="15"/>
       <c r="AY13" s="36"/>
     </row>
@@ -3668,7 +3678,7 @@
       <c r="C14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="92" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="3"/>
@@ -3681,14 +3691,14 @@
         <f>IF(ISTEXT(L14),"2.","")</f>
         <v>2.</v>
       </c>
-      <c r="L14" s="126" t="s">
+      <c r="L14" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
@@ -3713,7 +3723,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
       <c r="C15" s="62"/>
-      <c r="D15" s="91"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="59"/>
@@ -3724,14 +3734,14 @@
         <f>IF(ISTEXT(L15),"3.","")</f>
         <v>3.</v>
       </c>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
@@ -3756,7 +3766,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
       <c r="C16" s="62"/>
-      <c r="D16" s="92"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="59"/>
@@ -3767,22 +3777,22 @@
         <f>IF(ISTEXT(L16),"4.","")</f>
         <v/>
       </c>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="S16" s="83" t="s">
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="S16" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="108" t="s">
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="X16" s="109"/>
+      <c r="X16" s="111"/>
       <c r="Y16" s="56"/>
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
@@ -3812,16 +3822,16 @@
         <f>IF(ISTEXT(L17),"5.","")</f>
         <v/>
       </c>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
       <c r="W17" s="63" t="s">
         <v>15</v>
       </c>
@@ -3850,7 +3860,7 @@
       <c r="C18" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="92" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3"/>
@@ -3863,21 +3873,21 @@
         <f>IF(ISTEXT(L18),"6.","")</f>
         <v/>
       </c>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="140" t="str">
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="79" t="str">
         <f>N9</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X18" s="141" t="str">
+      <c r="X18" s="80" t="str">
         <f>N10</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3900,7 +3910,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="91"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="65"/>
@@ -3911,16 +3921,16 @@
         <f>IF(ISTEXT(L19),"7.","")</f>
         <v/>
       </c>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
       <c r="AB19" s="58"/>
@@ -3941,7 +3951,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="92"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="65"/>
@@ -3952,16 +3962,16 @@
         <f>IF(ISTEXT(L20),"8.","")</f>
         <v/>
       </c>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
       <c r="W20" s="10"/>
       <c r="X20" s="11"/>
       <c r="AB20" s="50"/>
@@ -3990,16 +4000,16 @@
         <f>IF(ISTEXT(L21),"9.","")</f>
         <v/>
       </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
       <c r="W21" s="10"/>
       <c r="X21" s="11"/>
       <c r="AJ21" s="58"/>
@@ -4016,7 +4026,7 @@
       <c r="C22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="92" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="3"/>
@@ -4029,16 +4039,16 @@
         <f>IF(ISTEXT(L22),"10.","")</f>
         <v/>
       </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
       <c r="W22" s="10"/>
       <c r="X22" s="11"/>
       <c r="AJ22" s="58"/>
@@ -4053,7 +4063,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="91"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="65"/>
@@ -4067,10 +4077,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
       <c r="W23" s="10"/>
       <c r="X23" s="11"/>
       <c r="AJ23" s="58"/>
@@ -4085,7 +4095,7 @@
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="91"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="65"/>
@@ -4095,10 +4105,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
       <c r="W24" s="10"/>
       <c r="X24" s="11"/>
       <c r="AJ24" s="58"/>
@@ -4113,7 +4123,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="92"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="65"/>
@@ -4123,10 +4133,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
       <c r="W25" s="10"/>
       <c r="X25" s="11"/>
       <c r="AJ25" s="58"/>
@@ -4151,10 +4161,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
       <c r="W26" s="10"/>
       <c r="X26" s="11"/>
       <c r="AJ26" s="58"/>
@@ -4179,10 +4189,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
       <c r="W27" s="10"/>
       <c r="X27" s="11"/>
       <c r="AJ27" s="58"/>
@@ -4207,10 +4217,10 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
       <c r="W28" s="10"/>
       <c r="X28" s="11"/>
       <c r="AJ28" s="58"/>
@@ -4224,17 +4234,17 @@
     <row r="29" spans="1:55" ht="21" customHeight="1">
       <c r="A29" s="15"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="82"/>
+      <c r="D29" s="84"/>
       <c r="F29" s="68"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
       <c r="W29" s="10"/>
       <c r="X29" s="11"/>
       <c r="AJ29" s="58"/>
@@ -4248,15 +4258,15 @@
     <row r="30" spans="1:55" ht="21" customHeight="1">
       <c r="A30" s="15"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="84"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
       <c r="M30" s="69"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
       <c r="W30" s="10"/>
       <c r="X30" s="11"/>
       <c r="AQ30" s="15"/>
@@ -4267,15 +4277,15 @@
     <row r="31" spans="1:55" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="15"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="82"/>
+      <c r="D31" s="84"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
       <c r="M31" s="69"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
       <c r="W31" s="10"/>
       <c r="X31" s="11"/>
       <c r="AK31" s="69"/>
@@ -4289,7 +4299,7 @@
     </row>
     <row r="32" spans="1:55" ht="21" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="D32" s="82"/>
+      <c r="D32" s="84"/>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
@@ -4311,7 +4321,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="82"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="65"/>
@@ -4319,11 +4329,11 @@
       <c r="I33" s="65"/>
       <c r="J33" s="3"/>
       <c r="M33" s="69"/>
-      <c r="S33" s="110" t="s">
+      <c r="S33" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="T33" s="111"/>
-      <c r="U33" s="112"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="114"/>
       <c r="V33" s="72"/>
       <c r="W33" s="10"/>
       <c r="X33" s="11"/>
@@ -4340,7 +4350,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="82"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="65"/>
@@ -4348,9 +4358,9 @@
       <c r="I34" s="65"/>
       <c r="J34" s="3"/>
       <c r="M34" s="69"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="124"/>
       <c r="V34" s="72" t="s">
         <v>37</v>
       </c>
@@ -4369,7 +4379,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="82"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="65"/>
@@ -4402,7 +4412,7 @@
       <c r="A36" s="15"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="82"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="65"/>
@@ -4410,11 +4420,11 @@
       <c r="I36" s="65"/>
       <c r="J36" s="3"/>
       <c r="M36" s="69"/>
-      <c r="S36" s="110" t="s">
+      <c r="S36" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="111"/>
-      <c r="U36" s="112"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="114"/>
       <c r="V36" s="72"/>
       <c r="W36" s="10"/>
       <c r="X36" s="11"/>
@@ -4443,9 +4453,9 @@
       <c r="I37" s="65"/>
       <c r="J37" s="3"/>
       <c r="M37" s="69"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="83"/>
       <c r="V37" s="72"/>
       <c r="W37" s="10"/>
       <c r="X37" s="11"/>
@@ -4495,7 +4505,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="82"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="65"/>
@@ -4524,7 +4534,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="82"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="65"/>
@@ -4562,7 +4572,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="82"/>
+      <c r="D41" s="84"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="65"/>
@@ -4597,7 +4607,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="82"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="65"/>
@@ -4632,7 +4642,7 @@
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="82"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="65"/>
@@ -4664,7 +4674,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="82"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="65"/>
@@ -4696,7 +4706,7 @@
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="82"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="65"/>
@@ -4728,7 +4738,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="82"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="65"/>

--- a/ExcelFiles/TrendLinesCaseStudy.xlsx
+++ b/ExcelFiles/TrendLinesCaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{5C7AE44A-B63E-4367-82D1-F22D9C65D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95B1AFA-531C-483F-B17E-5C68CAE09742}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{5C7AE44A-B63E-4367-82D1-F22D9C65D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8231DDA-5815-4008-9748-CD22757E4F89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Spring 2023</t>
+    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -1817,83 +1817,32 @@
     <xf numFmtId="0" fontId="40" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1904,23 +1853,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1968,10 +1945,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1984,72 +1957,99 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2737,10 +2737,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3144,10 +3140,10 @@
     <row r="2" spans="1:150" s="23" customFormat="1" ht="54.95" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="140"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -3253,12 +3249,12 @@
       <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="132" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
       <c r="K4" s="28"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="34"/>
@@ -3284,10 +3280,10 @@
     <row r="5" spans="1:150" ht="21.95" customHeight="1">
       <c r="A5" s="15"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="99"/>
+      <c r="D5" s="133"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="K5" s="28"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
@@ -3312,39 +3308,39 @@
     <row r="6" spans="1:150" ht="21.95" customHeight="1">
       <c r="A6" s="15"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="99"/>
-      <c r="G6" s="115" t="s">
+      <c r="D6" s="133"/>
+      <c r="G6" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="42"/>
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
       <c r="U6" s="41"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
       <c r="Y6" s="42"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="40"/>
       <c r="AC6" s="41"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
       <c r="AG6" s="42"/>
       <c r="AI6" s="39"/>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="41"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
       <c r="AO6" s="42"/>
       <c r="AQ6" s="15"/>
       <c r="AY6" s="36"/>
@@ -3355,7 +3351,7 @@
     <row r="7" spans="1:150" ht="21" customHeight="1">
       <c r="A7" s="15"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="99"/>
+      <c r="D7" s="133"/>
       <c r="F7" s="5"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -3392,7 +3388,7 @@
     </row>
     <row r="8" spans="1:150" ht="27" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="48"/>
@@ -3402,41 +3398,41 @@
       <c r="I8" s="14"/>
       <c r="J8" s="5"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104"/>
-      <c r="S8" s="101" t="s">
+      <c r="M8" s="136"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="S8" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="135"/>
       <c r="Y8" s="47"/>
       <c r="AA8" s="50"/>
-      <c r="AB8" s="91" t="s">
+      <c r="AB8" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
       <c r="AI8" s="50"/>
-      <c r="AJ8" s="129" t="s">
+      <c r="AJ8" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AK8" s="129"/>
-      <c r="AL8" s="129"/>
-      <c r="AM8" s="129"/>
-      <c r="AN8" s="129"/>
-      <c r="AO8" s="129"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
       <c r="AQ8" s="15"/>
       <c r="AY8" s="36"/>
       <c r="BA8" s="18" t="s">
@@ -3453,16 +3449,16 @@
       <c r="I9" s="51"/>
       <c r="J9" s="3"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="105" t="s">
+      <c r="L9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="105"/>
-      <c r="N9" s="107" t="s">
+      <c r="M9" s="137"/>
+      <c r="N9" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="109"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="141"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
@@ -3470,20 +3466,20 @@
       <c r="W9" s="53"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="47"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AJ9" s="130" t="s">
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AJ9" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="134"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="136"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="97"/>
       <c r="AQ9" s="15"/>
       <c r="AY9" s="36"/>
       <c r="BA9" s="18" t="s">
@@ -3499,28 +3495,28 @@
       <c r="C10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="129" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="118"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="3"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="107" t="s">
+      <c r="M10" s="138"/>
+      <c r="N10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
@@ -3528,20 +3524,20 @@
       <c r="W10" s="53"/>
       <c r="X10" s="53"/>
       <c r="Y10" s="56"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AJ10" s="132" t="s">
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AJ10" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="133"/>
-      <c r="AL10" s="137"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="139"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="100"/>
       <c r="AQ10" s="15"/>
       <c r="AY10" s="36"/>
       <c r="BA10" s="18" t="s">
@@ -3555,7 +3551,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="96"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="55"/>
@@ -3563,12 +3559,12 @@
       <c r="I11" s="58"/>
       <c r="J11" s="3"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
       <c r="U11" s="53"/>
@@ -3589,7 +3585,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="97"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="55"/>
@@ -3597,14 +3593,14 @@
       <c r="I12" s="58"/>
       <c r="J12" s="3"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="103" t="s">
+      <c r="L12" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
       <c r="U12" s="53"/>
@@ -3618,14 +3614,14 @@
       <c r="AE12" s="58"/>
       <c r="AF12" s="58"/>
       <c r="AG12" s="58"/>
-      <c r="AJ12" s="91" t="s">
+      <c r="AJ12" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="91"/>
-      <c r="AM12" s="91"/>
-      <c r="AN12" s="91"/>
-      <c r="AO12" s="91"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
       <c r="AQ12" s="15"/>
       <c r="AY12" s="36"/>
     </row>
@@ -3642,14 +3638,14 @@
         <f>IF(ISTEXT(L13),"1.","")</f>
         <v>1.</v>
       </c>
-      <c r="L13" s="128" t="s">
+      <c r="L13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
       <c r="S13" s="53"/>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -3663,12 +3659,12 @@
       <c r="AE13" s="58"/>
       <c r="AF13" s="58"/>
       <c r="AG13" s="58"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="91"/>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="101"/>
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="101"/>
+      <c r="AO13" s="101"/>
       <c r="AQ13" s="15"/>
       <c r="AY13" s="36"/>
     </row>
@@ -3678,7 +3674,7 @@
       <c r="C14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="126" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="3"/>
@@ -3691,14 +3687,14 @@
         <f>IF(ISTEXT(L14),"2.","")</f>
         <v>2.</v>
       </c>
-      <c r="L14" s="128" t="s">
+      <c r="L14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
@@ -3723,7 +3719,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
       <c r="C15" s="62"/>
-      <c r="D15" s="93"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="59"/>
@@ -3734,14 +3730,14 @@
         <f>IF(ISTEXT(L15),"3.","")</f>
         <v>3.</v>
       </c>
-      <c r="L15" s="128" t="s">
+      <c r="L15" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
@@ -3766,7 +3762,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
       <c r="C16" s="62"/>
-      <c r="D16" s="94"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="59"/>
@@ -3777,22 +3773,22 @@
         <f>IF(ISTEXT(L16),"4.","")</f>
         <v/>
       </c>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="S16" s="85" t="s">
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="S16" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="110" t="s">
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="X16" s="111"/>
+      <c r="X16" s="103"/>
       <c r="Y16" s="56"/>
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
@@ -3822,16 +3818,16 @@
         <f>IF(ISTEXT(L17),"5.","")</f>
         <v/>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
       <c r="W17" s="63" t="s">
         <v>15</v>
       </c>
@@ -3860,7 +3856,7 @@
       <c r="C18" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="126" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="3"/>
@@ -3873,16 +3869,16 @@
         <f>IF(ISTEXT(L18),"6.","")</f>
         <v/>
       </c>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
       <c r="W18" s="79" t="str">
         <f>N9</f>
         <v xml:space="preserve"> </v>
@@ -3910,7 +3906,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="93"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="65"/>
@@ -3921,16 +3917,16 @@
         <f>IF(ISTEXT(L19),"7.","")</f>
         <v/>
       </c>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
       <c r="AB19" s="58"/>
@@ -3951,7 +3947,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="94"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="65"/>
@@ -3962,16 +3958,16 @@
         <f>IF(ISTEXT(L20),"8.","")</f>
         <v/>
       </c>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
       <c r="W20" s="10"/>
       <c r="X20" s="11"/>
       <c r="AB20" s="50"/>
@@ -4000,16 +3996,16 @@
         <f>IF(ISTEXT(L21),"9.","")</f>
         <v/>
       </c>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
       <c r="W21" s="10"/>
       <c r="X21" s="11"/>
       <c r="AJ21" s="58"/>
@@ -4026,7 +4022,7 @@
       <c r="C22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="126" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="3"/>
@@ -4039,16 +4035,16 @@
         <f>IF(ISTEXT(L22),"10.","")</f>
         <v/>
       </c>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
       <c r="W22" s="10"/>
       <c r="X22" s="11"/>
       <c r="AJ22" s="58"/>
@@ -4063,7 +4059,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="93"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="65"/>
@@ -4077,10 +4073,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
       <c r="W23" s="10"/>
       <c r="X23" s="11"/>
       <c r="AJ23" s="58"/>
@@ -4095,7 +4091,7 @@
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="93"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="65"/>
@@ -4105,10 +4101,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
       <c r="W24" s="10"/>
       <c r="X24" s="11"/>
       <c r="AJ24" s="58"/>
@@ -4123,7 +4119,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="94"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="65"/>
@@ -4133,10 +4129,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
       <c r="W25" s="10"/>
       <c r="X25" s="11"/>
       <c r="AJ25" s="58"/>
@@ -4161,10 +4157,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="123"/>
       <c r="W26" s="10"/>
       <c r="X26" s="11"/>
       <c r="AJ26" s="58"/>
@@ -4189,10 +4185,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="123"/>
       <c r="W27" s="10"/>
       <c r="X27" s="11"/>
       <c r="AJ27" s="58"/>
@@ -4217,10 +4213,10 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="123"/>
       <c r="W28" s="10"/>
       <c r="X28" s="11"/>
       <c r="AJ28" s="58"/>
@@ -4234,17 +4230,17 @@
     <row r="29" spans="1:55" ht="21" customHeight="1">
       <c r="A29" s="15"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="84"/>
+      <c r="D29" s="119"/>
       <c r="F29" s="68"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
       <c r="W29" s="10"/>
       <c r="X29" s="11"/>
       <c r="AJ29" s="58"/>
@@ -4258,15 +4254,15 @@
     <row r="30" spans="1:55" ht="21" customHeight="1">
       <c r="A30" s="15"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="84"/>
+      <c r="D30" s="119"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
       <c r="M30" s="69"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
       <c r="W30" s="10"/>
       <c r="X30" s="11"/>
       <c r="AQ30" s="15"/>
@@ -4277,15 +4273,15 @@
     <row r="31" spans="1:55" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="15"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="84"/>
+      <c r="D31" s="119"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
       <c r="M31" s="69"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
       <c r="W31" s="10"/>
       <c r="X31" s="11"/>
       <c r="AK31" s="69"/>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="32" spans="1:55" ht="21" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="D32" s="84"/>
+      <c r="D32" s="119"/>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
@@ -4321,7 +4317,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="84"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="65"/>
@@ -4329,11 +4325,11 @@
       <c r="I33" s="65"/>
       <c r="J33" s="3"/>
       <c r="M33" s="69"/>
-      <c r="S33" s="112" t="s">
+      <c r="S33" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="T33" s="113"/>
-      <c r="U33" s="114"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="106"/>
       <c r="V33" s="72"/>
       <c r="W33" s="10"/>
       <c r="X33" s="11"/>
@@ -4350,7 +4346,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="84"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="65"/>
@@ -4358,9 +4354,9 @@
       <c r="I34" s="65"/>
       <c r="J34" s="3"/>
       <c r="M34" s="69"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="124"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="115"/>
       <c r="V34" s="72" t="s">
         <v>37</v>
       </c>
@@ -4379,7 +4375,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="84"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="65"/>
@@ -4412,7 +4408,7 @@
       <c r="A36" s="15"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="84"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="65"/>
@@ -4420,11 +4416,11 @@
       <c r="I36" s="65"/>
       <c r="J36" s="3"/>
       <c r="M36" s="69"/>
-      <c r="S36" s="112" t="s">
+      <c r="S36" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="T36" s="113"/>
-      <c r="U36" s="114"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="106"/>
       <c r="V36" s="72"/>
       <c r="W36" s="10"/>
       <c r="X36" s="11"/>
@@ -4453,9 +4449,9 @@
       <c r="I37" s="65"/>
       <c r="J37" s="3"/>
       <c r="M37" s="69"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="83"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="118"/>
       <c r="V37" s="72"/>
       <c r="W37" s="10"/>
       <c r="X37" s="11"/>
@@ -4505,7 +4501,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="84"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="65"/>
@@ -4534,7 +4530,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="84"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="65"/>
@@ -4572,7 +4568,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="84"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="65"/>
@@ -4607,7 +4603,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="84"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="65"/>
@@ -4642,7 +4638,7 @@
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="84"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="65"/>
@@ -4674,7 +4670,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="84"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="65"/>
@@ -4706,7 +4702,7 @@
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="84"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="65"/>
@@ -4738,7 +4734,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="84"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="65"/>
@@ -16589,12 +16585,30 @@
     <sortCondition ref="BA5"/>
   </sortState>
   <mergeCells count="46">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="S16:V31"/>
+    <mergeCell ref="AB8:AG10"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="S34:U34"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="N6:P6"/>
@@ -16611,30 +16625,12 @@
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="AL10:AO10"/>
     <mergeCell ref="AJ12:AO13"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="S16:V31"/>
-    <mergeCell ref="AB8:AG10"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Hover here">
